--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf9</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf9</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H2">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.8630115165315557</v>
+        <v>0.8836818697023334</v>
       </c>
       <c r="R2">
-        <v>7.767103648784001</v>
+        <v>7.953136827321001</v>
       </c>
       <c r="S2">
-        <v>0.1515549451273681</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="T2">
-        <v>0.1515549451273681</v>
+        <v>0.1910612426590029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H3">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>4.71169425061489</v>
+        <v>3.611807695540334</v>
       </c>
       <c r="R3">
-        <v>42.40524825553401</v>
+        <v>32.506269259863</v>
       </c>
       <c r="S3">
-        <v>0.8274287769400412</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="T3">
-        <v>0.8274287769400414</v>
+        <v>0.780910517930776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H4">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,338 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.1025669855104445</v>
+        <v>0.129634072624</v>
       </c>
       <c r="R4">
-        <v>0.9231028695940001</v>
+        <v>1.166706653616</v>
       </c>
       <c r="S4">
-        <v>0.01801196573064108</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="T4">
-        <v>0.01801196573064108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>1.413592666666667</v>
-      </c>
-      <c r="H5">
-        <v>4.240778000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.9971192302899344</v>
-      </c>
-      <c r="J5">
-        <v>0.9971192302899344</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.001493</v>
-      </c>
-      <c r="O5">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P5">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q5">
-        <v>0.0007034979504444446</v>
-      </c>
-      <c r="R5">
-        <v>0.006331481554000001</v>
-      </c>
-      <c r="S5">
-        <v>0.0001235424918839136</v>
-      </c>
-      <c r="T5">
-        <v>0.0001235424918839136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.004084</v>
-      </c>
-      <c r="H6">
-        <v>0.012252</v>
-      </c>
-      <c r="I6">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J6">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.6105093333333333</v>
-      </c>
-      <c r="N6">
-        <v>1.831528</v>
-      </c>
-      <c r="O6">
-        <v>0.1519928013857481</v>
-      </c>
-      <c r="P6">
-        <v>0.1519928013857482</v>
-      </c>
-      <c r="Q6">
-        <v>0.002493320117333333</v>
-      </c>
-      <c r="R6">
-        <v>0.022439881056</v>
-      </c>
-      <c r="S6">
-        <v>0.0004378562583800693</v>
-      </c>
-      <c r="T6">
-        <v>0.0004378562583800693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.004084</v>
-      </c>
-      <c r="H7">
-        <v>0.012252</v>
-      </c>
-      <c r="I7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.333134333333334</v>
-      </c>
-      <c r="N7">
-        <v>9.999403000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.8298192952305694</v>
-      </c>
-      <c r="P7">
-        <v>0.8298192952305695</v>
-      </c>
-      <c r="Q7">
-        <v>0.01361252061733333</v>
-      </c>
-      <c r="R7">
-        <v>0.122512685556</v>
-      </c>
-      <c r="S7">
-        <v>0.002390518290528149</v>
-      </c>
-      <c r="T7">
-        <v>0.002390518290528149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.004084</v>
-      </c>
-      <c r="H8">
-        <v>0.012252</v>
-      </c>
-      <c r="I8">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J8">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.07255766666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.217673</v>
-      </c>
-      <c r="O8">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="P8">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="Q8">
-        <v>0.0002963255106666667</v>
-      </c>
-      <c r="R8">
-        <v>0.002666929596</v>
-      </c>
-      <c r="S8">
-        <v>5.203823546807083E-05</v>
-      </c>
-      <c r="T8">
-        <v>5.203823546807083E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.004084</v>
-      </c>
-      <c r="H9">
-        <v>0.012252</v>
-      </c>
-      <c r="I9">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J9">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.001493</v>
-      </c>
-      <c r="O9">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P9">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q9">
-        <v>2.032470666666667E-06</v>
-      </c>
-      <c r="R9">
-        <v>1.8292236E-05</v>
-      </c>
-      <c r="S9">
-        <v>3.569256892395003E-07</v>
-      </c>
-      <c r="T9">
-        <v>3.569256892395002E-07</v>
+        <v>0.02802823941022117</v>
       </c>
     </row>
   </sheetData>
